--- a/etl/dataset_info_v2.xlsx
+++ b/etl/dataset_info_v2.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://lbl-my.sharepoint.com/personal/mattcalvert_lbl_gov/Documents/Desktop/project-4-financial-well-being/etl/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1f1b6eac9468f35d/Desktop/Classwork/Projects/04-financial-well-being/etl/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="395" documentId="8_{BB3E5B40-FC40-440C-9181-2401A3B9C7AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9518D7E1-D8EE-4C10-A6E5-C61370C6B052}"/>
+  <xr:revisionPtr revIDLastSave="401" documentId="8_{BB3E5B40-FC40-440C-9181-2401A3B9C7AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E88B0666-0F6F-4E9A-AC24-EFA64F52A2F6}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25800" windowHeight="21000" xr2:uid="{C35A3E50-8FED-4AB1-8F96-65A1C14B4758}"/>
+    <workbookView xWindow="1188" yWindow="0" windowWidth="18216" windowHeight="12336" xr2:uid="{C35A3E50-8FED-4AB1-8F96-65A1C14B4758}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet2!$A$1:$E$218</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet2!$A$1:$F$218</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="951" uniqueCount="509">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="949" uniqueCount="509">
   <si>
     <t>PUF_ID</t>
   </si>
@@ -1632,6 +1632,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1934,24 +1938,24 @@
   <dimension ref="A1:F218"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C76" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A50" sqref="A50"/>
+      <selection pane="bottomRight" activeCell="B80" sqref="B80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.7265625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="31.26953125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.26953125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="29.7265625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="27.26953125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="27.7265625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.81640625" style="1"/>
+    <col min="1" max="1" width="15.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="31.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="29.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="27.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="27.7109375" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>215</v>
       </c>
@@ -1971,7 +1975,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1982,7 +1986,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1993,7 +1997,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -2010,7 +2014,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -2024,7 +2028,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -2038,7 +2042,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -2052,7 +2056,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -2063,7 +2067,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -2077,7 +2081,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -2091,7 +2095,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -2105,7 +2109,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -2119,7 +2123,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -2133,7 +2137,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -2147,7 +2151,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -2161,7 +2165,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -2175,7 +2179,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -2189,7 +2193,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -2203,7 +2207,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
@@ -2214,7 +2218,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
@@ -2231,7 +2235,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
@@ -2248,7 +2252,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
@@ -2265,7 +2269,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
@@ -2282,7 +2286,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
@@ -2299,7 +2303,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
@@ -2316,7 +2320,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
@@ -2333,7 +2337,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
@@ -2350,7 +2354,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
@@ -2367,7 +2371,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
@@ -2384,7 +2388,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
@@ -2395,7 +2399,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
@@ -2406,7 +2410,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
@@ -2417,7 +2421,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>31</v>
       </c>
@@ -2428,7 +2432,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>32</v>
       </c>
@@ -2445,7 +2449,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>33</v>
       </c>
@@ -2462,7 +2466,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>34</v>
       </c>
@@ -2479,7 +2483,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>35</v>
       </c>
@@ -2496,7 +2500,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>36</v>
       </c>
@@ -2513,7 +2517,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>37</v>
       </c>
@@ -2530,7 +2534,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>38</v>
       </c>
@@ -2547,7 +2551,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>39</v>
       </c>
@@ -2564,7 +2568,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>40</v>
       </c>
@@ -2581,7 +2585,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>41</v>
       </c>
@@ -2592,7 +2596,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>42</v>
       </c>
@@ -2603,7 +2607,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>43</v>
       </c>
@@ -2614,7 +2618,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>44</v>
       </c>
@@ -2625,7 +2629,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>45</v>
       </c>
@@ -2636,7 +2640,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>46</v>
       </c>
@@ -2647,7 +2651,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>47</v>
       </c>
@@ -2658,7 +2662,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>48</v>
       </c>
@@ -2672,7 +2676,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>49</v>
       </c>
@@ -2689,7 +2693,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>50</v>
       </c>
@@ -2700,7 +2704,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>51</v>
       </c>
@@ -2717,7 +2721,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>52</v>
       </c>
@@ -2734,7 +2738,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>53</v>
       </c>
@@ -2751,7 +2755,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>54</v>
       </c>
@@ -2762,7 +2766,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>55</v>
       </c>
@@ -2773,7 +2777,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>56</v>
       </c>
@@ -2784,7 +2788,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>57</v>
       </c>
@@ -2798,7 +2802,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>58</v>
       </c>
@@ -2815,7 +2819,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>59</v>
       </c>
@@ -2832,7 +2836,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>60</v>
       </c>
@@ -2849,7 +2853,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>61</v>
       </c>
@@ -2866,7 +2870,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>62</v>
       </c>
@@ -2883,7 +2887,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>63</v>
       </c>
@@ -2900,7 +2904,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>64</v>
       </c>
@@ -2917,7 +2921,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>65</v>
       </c>
@@ -2934,7 +2938,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>66</v>
       </c>
@@ -2951,7 +2955,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>67</v>
       </c>
@@ -2965,7 +2969,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>68</v>
       </c>
@@ -2979,7 +2983,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>69</v>
       </c>
@@ -2993,7 +2997,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>70</v>
       </c>
@@ -3007,7 +3011,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>71</v>
       </c>
@@ -3021,7 +3025,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>72</v>
       </c>
@@ -3035,7 +3039,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>73</v>
       </c>
@@ -3049,7 +3053,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>74</v>
       </c>
@@ -3063,7 +3067,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>75</v>
       </c>
@@ -3077,7 +3081,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>76</v>
       </c>
@@ -3091,7 +3095,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>77</v>
       </c>
@@ -3111,7 +3115,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>78</v>
       </c>
@@ -3128,7 +3132,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>79</v>
       </c>
@@ -3148,7 +3152,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>80</v>
       </c>
@@ -3162,7 +3166,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>81</v>
       </c>
@@ -3176,7 +3180,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>82</v>
       </c>
@@ -3190,7 +3194,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>83</v>
       </c>
@@ -3207,7 +3211,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>84</v>
       </c>
@@ -3224,7 +3228,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>85</v>
       </c>
@@ -3235,7 +3239,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>86</v>
       </c>
@@ -3249,7 +3253,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>87</v>
       </c>
@@ -3260,7 +3264,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>88</v>
       </c>
@@ -3271,7 +3275,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>89</v>
       </c>
@@ -3288,7 +3292,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>90</v>
       </c>
@@ -3299,7 +3303,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="93" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>91</v>
       </c>
@@ -3316,7 +3320,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>92</v>
       </c>
@@ -3327,7 +3331,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>93</v>
       </c>
@@ -3344,7 +3348,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>94</v>
       </c>
@@ -3361,7 +3365,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>95</v>
       </c>
@@ -3378,7 +3382,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>96</v>
       </c>
@@ -3395,7 +3399,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>97</v>
       </c>
@@ -3412,7 +3416,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>98</v>
       </c>
@@ -3423,7 +3427,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>99</v>
       </c>
@@ -3440,7 +3444,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="102" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>100</v>
       </c>
@@ -3451,7 +3455,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>101</v>
       </c>
@@ -3462,7 +3466,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="104" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>102</v>
       </c>
@@ -3476,7 +3480,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>103</v>
       </c>
@@ -3492,11 +3496,8 @@
       <c r="E105" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="F105" s="1" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    </row>
+    <row r="106" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>104</v>
       </c>
@@ -3513,7 +3514,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="107" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>105</v>
       </c>
@@ -3530,7 +3531,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="108" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>106</v>
       </c>
@@ -3547,7 +3548,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>107</v>
       </c>
@@ -3564,7 +3565,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="110" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>108</v>
       </c>
@@ -3581,7 +3582,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="111" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>109</v>
       </c>
@@ -3598,7 +3599,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="112" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>110</v>
       </c>
@@ -3615,7 +3616,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="113" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>111</v>
       </c>
@@ -3632,7 +3633,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="114" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>112</v>
       </c>
@@ -3649,7 +3650,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="115" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>113</v>
       </c>
@@ -3660,7 +3661,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="116" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>114</v>
       </c>
@@ -3677,7 +3678,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="117" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>115</v>
       </c>
@@ -3694,7 +3695,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="118" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>116</v>
       </c>
@@ -3711,7 +3712,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="119" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>117</v>
       </c>
@@ -3728,7 +3729,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="120" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>118</v>
       </c>
@@ -3745,7 +3746,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="121" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>119</v>
       </c>
@@ -3762,7 +3763,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="122" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>120</v>
       </c>
@@ -3773,7 +3774,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="123" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>121</v>
       </c>
@@ -3784,7 +3785,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="124" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>122</v>
       </c>
@@ -3801,7 +3802,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="125" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>123</v>
       </c>
@@ -3818,7 +3819,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>124</v>
       </c>
@@ -3835,7 +3836,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="127" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>125</v>
       </c>
@@ -3852,7 +3853,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>126</v>
       </c>
@@ -3869,7 +3870,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>127</v>
       </c>
@@ -3886,7 +3887,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>128</v>
       </c>
@@ -3903,7 +3904,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>129</v>
       </c>
@@ -3920,7 +3921,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>130</v>
       </c>
@@ -3937,7 +3938,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="133" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>131</v>
       </c>
@@ -3954,7 +3955,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="134" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>132</v>
       </c>
@@ -3971,7 +3972,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>133</v>
       </c>
@@ -3988,7 +3989,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="136" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>134</v>
       </c>
@@ -4005,7 +4006,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="137" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>135</v>
       </c>
@@ -4022,7 +4023,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="138" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>136</v>
       </c>
@@ -4033,7 +4034,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="139" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>137</v>
       </c>
@@ -4050,7 +4051,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="140" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>138</v>
       </c>
@@ -4061,7 +4062,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="141" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>139</v>
       </c>
@@ -4075,7 +4076,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="142" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>140</v>
       </c>
@@ -4092,7 +4093,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="143" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>141</v>
       </c>
@@ -4109,7 +4110,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="144" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>142</v>
       </c>
@@ -4126,7 +4127,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="145" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>143</v>
       </c>
@@ -4143,7 +4144,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="146" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>144</v>
       </c>
@@ -4160,7 +4161,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="147" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>145</v>
       </c>
@@ -4177,7 +4178,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>146</v>
       </c>
@@ -4194,7 +4195,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="149" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>147</v>
       </c>
@@ -4205,7 +4206,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>372</v>
       </c>
@@ -4216,7 +4217,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>148</v>
       </c>
@@ -4227,7 +4228,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="152" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>149</v>
       </c>
@@ -4238,7 +4239,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="153" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>150</v>
       </c>
@@ -4249,7 +4250,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="154" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>151</v>
       </c>
@@ -4260,7 +4261,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>152</v>
       </c>
@@ -4271,7 +4272,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="156" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>153</v>
       </c>
@@ -4288,7 +4289,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="157" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>154</v>
       </c>
@@ -4305,7 +4306,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="158" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>155</v>
       </c>
@@ -4316,7 +4317,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="159" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>156</v>
       </c>
@@ -4327,7 +4328,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>157</v>
       </c>
@@ -4341,7 +4342,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="161" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>158</v>
       </c>
@@ -4355,7 +4356,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>159</v>
       </c>
@@ -4369,7 +4370,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="163" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>160</v>
       </c>
@@ -4383,7 +4384,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="164" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>161</v>
       </c>
@@ -4397,7 +4398,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="165" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>162</v>
       </c>
@@ -4411,7 +4412,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="166" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>389</v>
       </c>
@@ -4425,7 +4426,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="167" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>163</v>
       </c>
@@ -4439,7 +4440,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="168" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>164</v>
       </c>
@@ -4453,7 +4454,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="169" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>165</v>
       </c>
@@ -4467,7 +4468,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="170" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>166</v>
       </c>
@@ -4481,7 +4482,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="171" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>167</v>
       </c>
@@ -4495,7 +4496,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="172" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>168</v>
       </c>
@@ -4509,7 +4510,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="173" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>169</v>
       </c>
@@ -4523,7 +4524,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="174" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>170</v>
       </c>
@@ -4537,7 +4538,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="175" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>171</v>
       </c>
@@ -4551,7 +4552,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="176" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>172</v>
       </c>
@@ -4565,7 +4566,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="177" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>173</v>
       </c>
@@ -4582,7 +4583,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="178" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>174</v>
       </c>
@@ -4599,7 +4600,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="179" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>175</v>
       </c>
@@ -4616,7 +4617,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="180" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>176</v>
       </c>
@@ -4633,7 +4634,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="181" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>177</v>
       </c>
@@ -4647,7 +4648,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="182" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>178</v>
       </c>
@@ -4658,7 +4659,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="183" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
         <v>179</v>
       </c>
@@ -4675,7 +4676,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="184" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>180</v>
       </c>
@@ -4692,7 +4693,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="185" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>181</v>
       </c>
@@ -4709,7 +4710,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="186" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
         <v>182</v>
       </c>
@@ -4726,7 +4727,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="187" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
         <v>183</v>
       </c>
@@ -4743,7 +4744,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
         <v>184</v>
       </c>
@@ -4754,7 +4755,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
         <v>185</v>
       </c>
@@ -4771,7 +4772,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="190" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
         <v>186</v>
       </c>
@@ -4788,7 +4789,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="191" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>187</v>
       </c>
@@ -4805,7 +4806,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
         <v>188</v>
       </c>
@@ -4822,7 +4823,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
         <v>189</v>
       </c>
@@ -4839,7 +4840,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="194" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
         <v>190</v>
       </c>
@@ -4856,7 +4857,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
         <v>191</v>
       </c>
@@ -4873,7 +4874,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
         <v>192</v>
       </c>
@@ -4890,7 +4891,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="197" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
         <v>193</v>
       </c>
@@ -4907,7 +4908,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="198" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
         <v>194</v>
       </c>
@@ -4918,7 +4919,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="199" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
         <v>195</v>
       </c>
@@ -4935,7 +4936,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
         <v>196</v>
       </c>
@@ -4946,7 +4947,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
         <v>197</v>
       </c>
@@ -4963,7 +4964,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
         <v>198</v>
       </c>
@@ -4980,7 +4981,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="203" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
         <v>199</v>
       </c>
@@ -4997,7 +4998,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="204" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
         <v>200</v>
       </c>
@@ -5017,7 +5018,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
         <v>201</v>
       </c>
@@ -5034,7 +5035,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="206" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
         <v>202</v>
       </c>
@@ -5048,7 +5049,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="207" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
         <v>203</v>
       </c>
@@ -5065,7 +5066,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="208" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
         <v>204</v>
       </c>
@@ -5085,7 +5086,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
         <v>205</v>
       </c>
@@ -5101,11 +5102,8 @@
       <c r="E209" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="F209" s="1" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="210" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    </row>
+    <row r="210" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
         <v>206</v>
       </c>
@@ -5125,7 +5123,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="211" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
         <v>207</v>
       </c>
@@ -5145,7 +5143,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="212" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
         <v>208</v>
       </c>
@@ -5159,7 +5157,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="213" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
         <v>209</v>
       </c>
@@ -5173,7 +5171,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="214" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
         <v>210</v>
       </c>
@@ -5187,7 +5185,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="215" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
         <v>211</v>
       </c>
@@ -5201,7 +5199,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="216" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
         <v>212</v>
       </c>
@@ -5215,7 +5213,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="217" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
         <v>213</v>
       </c>
@@ -5229,7 +5227,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
         <v>214</v>
       </c>
@@ -5241,7 +5239,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E218" xr:uid="{E2E8EBA6-BC44-4A85-B0A6-0425C7845EEA}"/>
+  <autoFilter ref="A1:F218" xr:uid="{E2E8EBA6-BC44-4A85-B0A6-0425C7845EEA}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
